--- a/public/template/excel/format_laporan_anev_html.xlsx
+++ b/public/template/excel/format_laporan_anev_html.xlsx
@@ -1522,27 +1522,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,6 +1542,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1872,8 +1872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="I431" sqref="I431"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1888,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="79"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
@@ -1899,10 +1899,10 @@
       <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="79"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
@@ -1910,10 +1910,10 @@
       <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="79"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -1939,68 +1939,68 @@
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="87" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
+      <c r="A8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="82" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91" t="s">
+      <c r="D10" s="83"/>
+      <c r="E10" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="88" t="s">
+      <c r="F10" s="85"/>
+      <c r="G10" s="81" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
@@ -2009,7 +2009,7 @@
       <c r="F11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="88"/>
+      <c r="G11" s="81"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -11350,19 +11350,19 @@
       <c r="A428" s="73"/>
       <c r="B428" s="73"/>
       <c r="C428" s="74"/>
-      <c r="D428" s="80"/>
-      <c r="E428" s="80"/>
-      <c r="F428" s="80"/>
-      <c r="G428" s="80"/>
+      <c r="D428" s="89"/>
+      <c r="E428" s="89"/>
+      <c r="F428" s="89"/>
+      <c r="G428" s="89"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="73"/>
       <c r="B429" s="73"/>
       <c r="C429" s="74"/>
-      <c r="D429" s="81"/>
-      <c r="E429" s="81"/>
-      <c r="F429" s="81"/>
-      <c r="G429" s="81"/>
+      <c r="D429" s="90"/>
+      <c r="E429" s="90"/>
+      <c r="F429" s="90"/>
+      <c r="G429" s="90"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="73"/>
@@ -11395,26 +11395,36 @@
       <c r="A433" s="73"/>
       <c r="B433" s="73"/>
       <c r="C433" s="75"/>
-      <c r="D433" s="82"/>
-      <c r="E433" s="82"/>
-      <c r="F433" s="82"/>
-      <c r="G433" s="82"/>
+      <c r="D433" s="91"/>
+      <c r="E433" s="91"/>
+      <c r="F433" s="91"/>
+      <c r="G433" s="91"/>
     </row>
     <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A434" s="73"/>
       <c r="B434" s="73"/>
       <c r="C434" s="75"/>
-      <c r="D434" s="83"/>
-      <c r="E434" s="83"/>
-      <c r="F434" s="83"/>
-      <c r="G434" s="83"/>
+      <c r="D434" s="92"/>
+      <c r="E434" s="92"/>
+      <c r="F434" s="92"/>
+      <c r="G434" s="92"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E435" s="86"/>
-      <c r="F435" s="86"/>
+      <c r="E435" s="79"/>
+      <c r="F435" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D428:G428"/>
+    <mergeCell ref="D429:G429"/>
+    <mergeCell ref="D433:G433"/>
+    <mergeCell ref="D434:G434"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
@@ -11422,16 +11432,6 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D428:G428"/>
-    <mergeCell ref="D429:G429"/>
-    <mergeCell ref="D433:G433"/>
-    <mergeCell ref="D434:G434"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/public/template/excel/format_laporan_anev_html.xlsx
+++ b/public/template/excel/format_laporan_anev_html.xlsx
@@ -975,7 +975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,14 +1064,7 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1522,6 +1515,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1543,25 +1551,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1872,8 +1865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H435"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="178" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D434" sqref="D434:G434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1888,10 +1881,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="79" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="77"/>
       <c r="D1" s="77"/>
       <c r="E1" s="77"/>
@@ -1899,10 +1892,10 @@
       <c r="G1" s="77"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>297</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="77"/>
       <c r="D2" s="77"/>
       <c r="E2" s="77"/>
@@ -1910,10 +1903,10 @@
       <c r="G2" s="77"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="77"/>
       <c r="D3" s="77"/>
       <c r="E3" s="77"/>
@@ -1939,68 +1932,68 @@
       <c r="G5" s="78"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="82" t="s">
         <v>299</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="83" t="s">
         <v>300</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="81" t="s">
+      <c r="A10" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="83"/>
-      <c r="E10" s="84" t="s">
+      <c r="D10" s="88"/>
+      <c r="E10" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="90"/>
+      <c r="G10" s="86" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="36"/>
       <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
@@ -2009,7 +2002,7 @@
       <c r="F11" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="81"/>
+      <c r="G11" s="86"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
@@ -11350,19 +11343,19 @@
       <c r="A428" s="73"/>
       <c r="B428" s="73"/>
       <c r="C428" s="74"/>
-      <c r="D428" s="89"/>
-      <c r="E428" s="89"/>
-      <c r="F428" s="89"/>
-      <c r="G428" s="89"/>
+      <c r="D428" s="80"/>
+      <c r="E428" s="80"/>
+      <c r="F428" s="80"/>
+      <c r="G428" s="80"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="73"/>
       <c r="B429" s="73"/>
       <c r="C429" s="74"/>
-      <c r="D429" s="90"/>
-      <c r="E429" s="90"/>
-      <c r="F429" s="90"/>
-      <c r="G429" s="90"/>
+      <c r="D429" s="81"/>
+      <c r="E429" s="81"/>
+      <c r="F429" s="81"/>
+      <c r="G429" s="81"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="73"/>
@@ -11391,7 +11384,7 @@
       <c r="F432" s="75"/>
       <c r="G432" s="75"/>
     </row>
-    <row r="433" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="73"/>
       <c r="B433" s="73"/>
       <c r="C433" s="75"/>
@@ -11400,7 +11393,7 @@
       <c r="F433" s="91"/>
       <c r="G433" s="91"/>
     </row>
-    <row r="434" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="73"/>
       <c r="B434" s="73"/>
       <c r="C434" s="75"/>
@@ -11410,21 +11403,11 @@
       <c r="G434" s="92"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E435" s="79"/>
-      <c r="F435" s="79"/>
+      <c r="E435" s="84"/>
+      <c r="F435" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="D428:G428"/>
-    <mergeCell ref="D429:G429"/>
-    <mergeCell ref="D433:G433"/>
-    <mergeCell ref="D434:G434"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
     <mergeCell ref="E435:F435"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A10:A11"/>
@@ -11432,6 +11415,16 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="D428:G428"/>
+    <mergeCell ref="D429:G429"/>
+    <mergeCell ref="D433:G433"/>
+    <mergeCell ref="D434:G434"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
